--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.5408688405951</v>
+        <v>1095.520839222413</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.542561501688547</v>
+        <v>8.951113551215126</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.542561501688547</v>
+        <v>8.926455063461642</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.6499999999992</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.34</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -769,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>17.11679712152663</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.23760250281424</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.92645506346164</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>199.8750000000001</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>214.2949999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>216.825</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>223.0449999999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>215.6599999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>159.9400000000008</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>158.2750000000008</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>155.5100000000008</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>151.5900000000008</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>145.6850000000008</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>119.3649999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>131.3249999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>122.1899999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>129.5699999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.3899999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>199.8750000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>214.2949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>216.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>223.0449999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.6599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>159.9400000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>158.2750000000008</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>155.5100000000008</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>151.5900000000008</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>145.6850000000008</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.29499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.04499999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.65999999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1594,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1696,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1707,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1729,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1740,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1751,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1762,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1784,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1861,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1905,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,10 +2110,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2001,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2012,10 +2132,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2023,12 +2143,78 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
